--- a/JobTrendsSprint3BurnupChart.xlsx
+++ b/JobTrendsSprint3BurnupChart.xlsx
@@ -193,11 +193,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1399225531"/>
-        <c:axId val="590544107"/>
+        <c:axId val="494532036"/>
+        <c:axId val="1153312846"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1399225531"/>
+        <c:axId val="494532036"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -229,10 +229,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="590544107"/>
+        <c:crossAx val="1153312846"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="590544107"/>
+        <c:axId val="1153312846"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -280,7 +280,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1399225531"/>
+        <c:crossAx val="494532036"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -427,8 +427,8 @@
       <c r="C6" s="3">
         <v>40.0</v>
       </c>
-      <c r="D6" s="1">
-        <v>30.0</v>
+      <c r="D6" s="3">
+        <v>25.0</v>
       </c>
       <c r="E6" s="3">
         <v>24.0</v>
@@ -445,7 +445,7 @@
         <v>40.0</v>
       </c>
       <c r="D7" s="3">
-        <v>40.0</v>
+        <v>25.0</v>
       </c>
       <c r="E7" s="3">
         <v>30.0</v>
@@ -462,7 +462,7 @@
         <v>40.0</v>
       </c>
       <c r="D8" s="3">
-        <v>40.0</v>
+        <v>25.0</v>
       </c>
       <c r="E8" s="3">
         <v>36.0</v>
@@ -479,7 +479,7 @@
         <v>40.0</v>
       </c>
       <c r="D9" s="3">
-        <v>40.0</v>
+        <v>25.0</v>
       </c>
       <c r="E9" s="3">
         <v>40.0</v>
